--- a/ACCESS_SCRIPT/input_data/script/gui_map.xlsx
+++ b/ACCESS_SCRIPT/input_data/script/gui_map.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5519F1C0-99FB-4E32-985B-24BDF5850631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99AA79-B25F-472D-B82B-B2CCC048ABE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1056" windowWidth="21576" windowHeight="7380" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guiMap" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>locator_type</t>
   </si>
@@ -141,18 +142,6 @@
     <t>Created bar code</t>
   </si>
   <si>
-    <t>fileUploadButton</t>
-  </si>
-  <si>
-    <t>file to upload button</t>
-  </si>
-  <si>
-    <t>file to upload text</t>
-  </si>
-  <si>
-    <t>fileUploadText</t>
-  </si>
-  <si>
     <t>//input[@id='ctl00_ctl00_ContentPlaceHolder1_maincontent_txtTitle1']</t>
   </si>
   <si>
@@ -163,6 +152,99 @@
   </si>
   <si>
     <t>ctl00_ctl00_ContentPlaceHolder1_maincontent_btnSubmit</t>
+  </si>
+  <si>
+    <t>file to upload button 1</t>
+  </si>
+  <si>
+    <t>file to upload button 2</t>
+  </si>
+  <si>
+    <t>file to upload button 3</t>
+  </si>
+  <si>
+    <t>file to upload button 4</t>
+  </si>
+  <si>
+    <t>file to upload button 5</t>
+  </si>
+  <si>
+    <t>fileUploadButton1</t>
+  </si>
+  <si>
+    <t>fileUploadButton2</t>
+  </si>
+  <si>
+    <t>fileUploadButton3</t>
+  </si>
+  <si>
+    <t>fileUploadButton4</t>
+  </si>
+  <si>
+    <t>fileUploadButton5</t>
+  </si>
+  <si>
+    <t>ctl00_ctl00_ContentPlaceHolder1_maincontent_fileupload2</t>
+  </si>
+  <si>
+    <t>ctl00_ctl00_ContentPlaceHolder1_maincontent_fileupload3</t>
+  </si>
+  <si>
+    <t>ctl00_ctl00_ContentPlaceHolder1_maincontent_fileupload4</t>
+  </si>
+  <si>
+    <t>ctl00_ctl00_ContentPlaceHolder1_maincontent_fileupload5</t>
+  </si>
+  <si>
+    <t>file to upload text 1</t>
+  </si>
+  <si>
+    <t>file to upload text 2</t>
+  </si>
+  <si>
+    <t>file to upload text 3</t>
+  </si>
+  <si>
+    <t>file to upload text 4</t>
+  </si>
+  <si>
+    <t>file to upload text 5</t>
+  </si>
+  <si>
+    <t>fileUploadText1</t>
+  </si>
+  <si>
+    <t>fileUploadText2</t>
+  </si>
+  <si>
+    <t>fileUploadText3</t>
+  </si>
+  <si>
+    <t>fileUploadText4</t>
+  </si>
+  <si>
+    <t>fileUploadText5</t>
+  </si>
+  <si>
+    <t>//input[@id='ctl00_ctl00_ContentPlaceHolder1_maincontent_txtTitle2']</t>
+  </si>
+  <si>
+    <t>//input[@id='ctl00_ctl00_ContentPlaceHolder1_maincontent_txtTitle3']</t>
+  </si>
+  <si>
+    <t>//input[@id='ctl00_ctl00_ContentPlaceHolder1_maincontent_txtTitle4']</t>
+  </si>
+  <si>
+    <t>//input[@id='ctl00_ctl00_ContentPlaceHolder1_maincontent_txtTitle5']</t>
+  </si>
+  <si>
+    <t>Add more files button</t>
+  </si>
+  <si>
+    <t>addMoreFiles</t>
+  </si>
+  <si>
+    <t>//input[@id='ctl00_ContentPlaceHolder1_btnAddAttachment']</t>
   </si>
 </sst>
 </file>
@@ -269,8 +351,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:D15" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D15" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:D24" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D24" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F64F45A6-3645-44FE-9479-6241357AB038}" name="field_name"/>
     <tableColumn id="2" xr3:uid="{C2DBC26B-6F8C-4783-ACA4-D8FD50DC9F57}" name="field_tag"/>
@@ -544,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,58 +796,184 @@
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/ACCESS_SCRIPT/input_data/script/gui_map.xlsx
+++ b/ACCESS_SCRIPT/input_data/script/gui_map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B99AA79-B25F-472D-B82B-B2CCC048ABE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5234BC-D483-4258-9182-B21DB3728439}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>locator_type</t>
   </si>
@@ -245,6 +245,51 @@
   </si>
   <si>
     <t>//input[@id='ctl00_ContentPlaceHolder1_btnAddAttachment']</t>
+  </si>
+  <si>
+    <t>fieldHelpLink_2</t>
+  </si>
+  <si>
+    <t>field help link 2</t>
+  </si>
+  <si>
+    <t>field help link 3</t>
+  </si>
+  <si>
+    <t>fieldHelpLink_3</t>
+  </si>
+  <si>
+    <t>//span[contains(., '~val~')]/ancestor::tbody[1]/tr[1]//input[1]</t>
+  </si>
+  <si>
+    <t>//input[@value='~val~']/ancestor::td[1]/following-sibling::td[1]/input</t>
+  </si>
+  <si>
+    <t>field help link 4</t>
+  </si>
+  <si>
+    <t>fieldHelpLink_4</t>
+  </si>
+  <si>
+    <t>Help message</t>
+  </si>
+  <si>
+    <t>helpMessage</t>
+  </si>
+  <si>
+    <t>//span[@id='lblMessage']</t>
+  </si>
+  <si>
+    <t>fieldHelpLink_1</t>
+  </si>
+  <si>
+    <t>field help link 1</t>
+  </si>
+  <si>
+    <t>//input[@value='Quick Search']/following-sibling::input</t>
+  </si>
+  <si>
+    <t>//span[.= '~val~']/ancestor::tr[1]/td[3]/input[1]</t>
   </si>
 </sst>
 </file>
@@ -351,8 +396,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:D24" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D24" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:D29" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D29" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F64F45A6-3645-44FE-9479-6241357AB038}" name="field_name"/>
     <tableColumn id="2" xr3:uid="{C2DBC26B-6F8C-4783-ACA4-D8FD50DC9F57}" name="field_tag"/>
@@ -626,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,6 +1021,76 @@
         <v>72</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ACCESS_SCRIPT/input_data/script/gui_map.xlsx
+++ b/ACCESS_SCRIPT/input_data/script/gui_map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5234BC-D483-4258-9182-B21DB3728439}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4A2C80-9C4E-4FB6-9540-D5AFDB750A7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>locator_type</t>
   </si>
@@ -290,6 +290,30 @@
   </si>
   <si>
     <t>//span[.= '~val~']/ancestor::tr[1]/td[3]/input[1]</t>
+  </si>
+  <si>
+    <t>//span[contains(., 'ERROR: Invalid Case Number')]</t>
+  </si>
+  <si>
+    <t>fieldError_1</t>
+  </si>
+  <si>
+    <t>invalid Case number error</t>
+  </si>
+  <si>
+    <t>invalidCaseNumber</t>
+  </si>
+  <si>
+    <t>//span[text()='~val~']/ancestor::tr[1]/td[4]//select</t>
+  </si>
+  <si>
+    <t>filedSelect_1</t>
+  </si>
+  <si>
+    <t>field error link 1</t>
+  </si>
+  <si>
+    <t>//span[.= '~val~']/ancestor::tr[1]/td[4]//span</t>
   </si>
 </sst>
 </file>
@@ -396,8 +420,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:D29" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D29" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:D32" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D32" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F64F45A6-3645-44FE-9479-6241357AB038}" name="field_name"/>
     <tableColumn id="2" xr3:uid="{C2DBC26B-6F8C-4783-ACA4-D8FD50DC9F57}" name="field_tag"/>
@@ -671,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,268 +851,310 @@
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>41</v>
+      <c r="D22" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
-        <v>77</v>
+      <c r="D26" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>81</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/ACCESS_SCRIPT/input_data/script/gui_map.xlsx
+++ b/ACCESS_SCRIPT/input_data/script/gui_map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4A2C80-9C4E-4FB6-9540-D5AFDB750A7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E525BBCE-2EA8-466F-B6C1-A65650DAA500}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>locator_type</t>
   </si>
@@ -124,9 +124,6 @@
     <t>FiledOnBehalfOf</t>
   </si>
   <si>
-    <t>//span[text()='Filed On Behalf Of (collective entity)']/ancestor::tr[1]/td[4]//textarea</t>
-  </si>
-  <si>
     <t>submitButton</t>
   </si>
   <si>
@@ -314,6 +311,48 @@
   </si>
   <si>
     <t>//span[.= '~val~']/ancestor::tr[1]/td[4]//span</t>
+  </si>
+  <si>
+    <t>field error link 2</t>
+  </si>
+  <si>
+    <t>//input[contains(@name, 'txtTitle1')]/following-sibling::span</t>
+  </si>
+  <si>
+    <t>fieldError_title</t>
+  </si>
+  <si>
+    <t>field error link 3</t>
+  </si>
+  <si>
+    <t>//input[contains(@name, 'fileupload1')]/following-sibling::span</t>
+  </si>
+  <si>
+    <t>fieldError_fileUpload</t>
+  </si>
+  <si>
+    <t>select fields</t>
+  </si>
+  <si>
+    <t>//a[contains(., 'Home')]</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>//span[text()='Filed On Behalf Of (collective entity)']/ancestor::tr[1]//textarea</t>
+  </si>
+  <si>
+    <t>Filed On Behalf Of ERROR</t>
+  </si>
+  <si>
+    <t>FiledOnBehalfOfError</t>
+  </si>
+  <si>
+    <t>//span[text()='Filed On Behalf Of (collective entity)']/ancestor::tr[1]//textarea/following-sibling::span[1]</t>
   </si>
 </sst>
 </file>
@@ -420,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:D32" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D32" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:D36" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D36" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F64F45A6-3645-44FE-9479-6241357AB038}" name="field_name"/>
     <tableColumn id="2" xr3:uid="{C2DBC26B-6F8C-4783-ACA4-D8FD50DC9F57}" name="field_tag"/>
@@ -695,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,16 +890,16 @@
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -874,287 +913,343 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
         <v>75</v>
       </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
         <v>79</v>
       </c>
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>94</v>
       </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/ACCESS_SCRIPT/input_data/script/gui_map.xlsx
+++ b/ACCESS_SCRIPT/input_data/script/gui_map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E525BBCE-2EA8-466F-B6C1-A65650DAA500}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19799C7A-76B1-4173-A10E-EA49D9604BCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
   <si>
     <t>locator_type</t>
   </si>
@@ -353,6 +353,75 @@
   </si>
   <si>
     <t>//span[text()='Filed On Behalf Of (collective entity)']/ancestor::tr[1]//textarea/following-sibling::span[1]</t>
+  </si>
+  <si>
+    <t>//span[text()='Title']/ancestor::tr[1]/td[4]//input</t>
+  </si>
+  <si>
+    <t>//span[text()='Page Count']/ancestor::tr[1]/td[4]//input</t>
+  </si>
+  <si>
+    <t>txtTitle</t>
+  </si>
+  <si>
+    <t>txtPageCount</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>page count</t>
+  </si>
+  <si>
+    <t>Manual submission</t>
+  </si>
+  <si>
+    <t>manualSubmission</t>
+  </si>
+  <si>
+    <t>//span[text()='Manual Submission']/ancestor::tr[1]/td[4]//input</t>
+  </si>
+  <si>
+    <t>similar submission button</t>
+  </si>
+  <si>
+    <t>similarSubmissionButton</t>
+  </si>
+  <si>
+    <t>//input[@value = 'E-File Similar Submission']</t>
+  </si>
+  <si>
+    <t>//a[text()='Update Profile']</t>
+  </si>
+  <si>
+    <t>updateProfile</t>
+  </si>
+  <si>
+    <t>update profile</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>linkLogout</t>
+  </si>
+  <si>
+    <t>//a[text()='Logout']</t>
+  </si>
+  <si>
+    <t>//a[text()='E-Filer Registration']</t>
+  </si>
+  <si>
+    <t>linkEfileRegister</t>
+  </si>
+  <si>
+    <t>//input[@value= 'Accept']</t>
+  </si>
+  <si>
+    <t>button accept</t>
+  </si>
+  <si>
+    <t>buttonAccept</t>
   </si>
 </sst>
 </file>
@@ -389,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +468,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -415,12 +490,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -459,8 +535,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:D36" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D36" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BD0BA1D-0DE8-4299-8F64-04FEFD8778A2}" name="Table3" displayName="Table3" ref="A1:D44" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D44" xr:uid="{E1CC5E0A-5738-47FA-BB8F-797109AC0230}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F64F45A6-3645-44FE-9479-6241357AB038}" name="field_name"/>
     <tableColumn id="2" xr3:uid="{C2DBC26B-6F8C-4783-ACA4-D8FD50DC9F57}" name="field_tag"/>
@@ -734,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,438 +894,550 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
-        <v>87</v>
+      <c r="D31" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
+        <v>118</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
-      <c r="D32" t="s">
-        <v>94</v>
+      <c r="D32" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
-      <c r="D33" t="s">
-        <v>96</v>
+      <c r="D33" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B42" t="s">
         <v>103</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
